--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp8a-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp8a-Tgfbr1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3786073333333333</v>
+        <v>0.01037833333333333</v>
       </c>
       <c r="H2">
-        <v>1.135822</v>
+        <v>0.031135</v>
       </c>
       <c r="I2">
-        <v>0.3713290366620656</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="J2">
-        <v>0.3713290366620657</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>63.76294533333333</v>
+        <v>5.482938999999999</v>
       </c>
       <c r="N2">
-        <v>191.288836</v>
+        <v>16.448817</v>
       </c>
       <c r="O2">
-        <v>0.6446527016991613</v>
+        <v>0.1472261722051079</v>
       </c>
       <c r="P2">
-        <v>0.6446527016991614</v>
+        <v>0.147226172205108</v>
       </c>
       <c r="Q2">
-        <v>24.14111869813244</v>
+        <v>0.05690376858833333</v>
       </c>
       <c r="R2">
-        <v>217.270068283192</v>
+        <v>0.512133917295</v>
       </c>
       <c r="S2">
-        <v>0.2393782667035475</v>
+        <v>0.003112780555510611</v>
       </c>
       <c r="T2">
-        <v>0.2393782667035476</v>
+        <v>0.003112780555510612</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3786073333333333</v>
+        <v>0.01037833333333333</v>
       </c>
       <c r="H3">
-        <v>1.135822</v>
+        <v>0.031135</v>
       </c>
       <c r="I3">
-        <v>0.3713290366620656</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="J3">
-        <v>0.3713290366620657</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>66.96657999999999</v>
       </c>
       <c r="O3">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="P3">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="Q3">
-        <v>8.451346092084442</v>
+        <v>0.2316671631444445</v>
       </c>
       <c r="R3">
-        <v>76.06211482875999</v>
+        <v>2.0850044683</v>
       </c>
       <c r="S3">
-        <v>0.08380177423142693</v>
+        <v>0.01267278176254534</v>
       </c>
       <c r="T3">
-        <v>0.08380177423142694</v>
+        <v>0.01267278176254534</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3786073333333333</v>
+        <v>0.01037833333333333</v>
       </c>
       <c r="H4">
-        <v>1.135822</v>
+        <v>0.031135</v>
       </c>
       <c r="I4">
-        <v>0.3713290366620656</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="J4">
-        <v>0.3713290366620657</v>
+        <v>0.02114284782989566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.825399</v>
+        <v>9.436472999999999</v>
       </c>
       <c r="N4">
-        <v>38.476197</v>
+        <v>28.309419</v>
       </c>
       <c r="O4">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="P4">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="Q4">
-        <v>4.855790114325999</v>
+        <v>0.09793486228500001</v>
       </c>
       <c r="R4">
-        <v>43.70211102893399</v>
+        <v>0.881413760565</v>
       </c>
       <c r="S4">
-        <v>0.04814899572709113</v>
+        <v>0.005357285511839707</v>
       </c>
       <c r="T4">
-        <v>0.04814899572709114</v>
+        <v>0.005357285511839707</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4265683333333334</v>
+        <v>0.4265683333333333</v>
       </c>
       <c r="H5">
         <v>1.279705</v>
       </c>
       <c r="I5">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="J5">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.76294533333333</v>
+        <v>5.482938999999999</v>
       </c>
       <c r="N5">
-        <v>191.288836</v>
+        <v>16.448817</v>
       </c>
       <c r="O5">
-        <v>0.6446527016991613</v>
+        <v>0.1472261722051079</v>
       </c>
       <c r="P5">
-        <v>0.6446527016991614</v>
+        <v>0.147226172205108</v>
       </c>
       <c r="Q5">
-        <v>27.19925331926445</v>
+        <v>2.338848150998333</v>
       </c>
       <c r="R5">
-        <v>244.79327987338</v>
+        <v>21.04963335898499</v>
       </c>
       <c r="S5">
-        <v>0.2697020878199783</v>
+        <v>0.127940929525926</v>
       </c>
       <c r="T5">
-        <v>0.2697020878199783</v>
+        <v>0.127940929525926</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4265683333333334</v>
+        <v>0.4265683333333333</v>
       </c>
       <c r="H6">
         <v>1.279705</v>
       </c>
       <c r="I6">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="J6">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>66.96657999999999</v>
       </c>
       <c r="O6">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="P6">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="Q6">
-        <v>9.521940806544444</v>
+        <v>9.521940806544443</v>
       </c>
       <c r="R6">
-        <v>85.69746725889999</v>
+        <v>85.69746725889998</v>
       </c>
       <c r="S6">
-        <v>0.09441756674270108</v>
+        <v>0.520874327459068</v>
       </c>
       <c r="T6">
-        <v>0.09441756674270109</v>
+        <v>0.520874327459068</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4265683333333334</v>
+        <v>0.4265683333333333</v>
       </c>
       <c r="H7">
         <v>1.279705</v>
       </c>
       <c r="I7">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="J7">
-        <v>0.4183680408212104</v>
+        <v>0.8690094132698448</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.825399</v>
+        <v>9.436472999999999</v>
       </c>
       <c r="N7">
-        <v>38.476197</v>
+        <v>28.309419</v>
       </c>
       <c r="O7">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="P7">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="Q7">
-        <v>5.470909075765</v>
+        <v>4.025300560154999</v>
       </c>
       <c r="R7">
-        <v>49.238181681885</v>
+        <v>36.22770504139499</v>
       </c>
       <c r="S7">
-        <v>0.05424838625853098</v>
+        <v>0.2201941562848508</v>
       </c>
       <c r="T7">
-        <v>0.05424838625853098</v>
+        <v>0.2201941562848508</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.214425</v>
+        <v>0.05392066666666667</v>
       </c>
       <c r="H8">
-        <v>0.6432749999999999</v>
+        <v>0.161762</v>
       </c>
       <c r="I8">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="J8">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>63.76294533333333</v>
+        <v>5.482938999999999</v>
       </c>
       <c r="N8">
-        <v>191.288836</v>
+        <v>16.448817</v>
       </c>
       <c r="O8">
-        <v>0.6446527016991613</v>
+        <v>0.1472261722051079</v>
       </c>
       <c r="P8">
-        <v>0.6446527016991614</v>
+        <v>0.147226172205108</v>
       </c>
       <c r="Q8">
-        <v>13.6723695531</v>
+        <v>0.2956437261726666</v>
       </c>
       <c r="R8">
-        <v>123.0513259779</v>
+        <v>2.660793535553999</v>
       </c>
       <c r="S8">
-        <v>0.1355723471756354</v>
+        <v>0.01617246212367135</v>
       </c>
       <c r="T8">
-        <v>0.1355723471756354</v>
+        <v>0.01617246212367135</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.214425</v>
+        <v>0.05392066666666667</v>
       </c>
       <c r="H9">
-        <v>0.6432749999999999</v>
+        <v>0.161762</v>
       </c>
       <c r="I9">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="J9">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>66.96657999999999</v>
       </c>
       <c r="O9">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="P9">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="Q9">
-        <v>4.786436305499999</v>
+        <v>1.203627545995555</v>
       </c>
       <c r="R9">
-        <v>43.07792674949999</v>
+        <v>10.83264791396</v>
       </c>
       <c r="S9">
-        <v>0.04746129791351212</v>
+        <v>0.06584148140269341</v>
       </c>
       <c r="T9">
-        <v>0.04746129791351212</v>
+        <v>0.06584148140269341</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.214425</v>
+        <v>0.05392066666666667</v>
       </c>
       <c r="H10">
-        <v>0.6432749999999999</v>
+        <v>0.161762</v>
       </c>
       <c r="I10">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="J10">
-        <v>0.2103029225167238</v>
+        <v>0.1098477389002595</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.825399</v>
+        <v>9.436472999999999</v>
       </c>
       <c r="N10">
-        <v>38.476197</v>
+        <v>28.309419</v>
       </c>
       <c r="O10">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="P10">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="Q10">
-        <v>2.750086180574999</v>
+        <v>0.508820915142</v>
       </c>
       <c r="R10">
-        <v>24.750775625175</v>
+        <v>4.579388236278</v>
       </c>
       <c r="S10">
-        <v>0.02726927742757628</v>
+        <v>0.0278337953738948</v>
       </c>
       <c r="T10">
-        <v>0.02726927742757628</v>
+        <v>0.0278337953738948</v>
       </c>
     </row>
   </sheetData>
